--- a/data/532/HKCSD/Nominal Gross Value Added.xlsx
+++ b/data/532/HKCSD/Nominal Gross Value Added.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKC" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,164 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Year.1</t>
-  </si>
-  <si>
-    <t>Year.2</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019 r</t>
-  </si>
-  <si>
-    <t>2020 r</t>
-  </si>
-  <si>
-    <t>Economic Activity</t>
-  </si>
-  <si>
-    <t>GDP at current market prices</t>
-  </si>
-  <si>
-    <t>HK$ million</t>
-  </si>
-  <si>
-    <t>Agriculture, fishing, mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, gas and water supply, and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Import/export, wholesale and retail trades</t>
-  </si>
-  <si>
-    <t>Import and export trade</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trades</t>
-  </si>
-  <si>
-    <t>Accommodation and food services (1)</t>
-  </si>
-  <si>
-    <t>Transportation, storage, postal and courier services</t>
-  </si>
-  <si>
-    <t>Transportation and storage</t>
-  </si>
-  <si>
-    <t>Postal and courier services</t>
-  </si>
-  <si>
-    <t>Information and communications</t>
-  </si>
-  <si>
-    <t>Financing and insurance</t>
-  </si>
-  <si>
-    <t>Real estate, professional and business services</t>
-  </si>
-  <si>
-    <t>Real estate</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration, social and personal services</t>
-  </si>
-  <si>
-    <t>Ownership of premises</t>
-  </si>
-  <si>
-    <t>GDP at basic prices</t>
-  </si>
-  <si>
-    <t>Taxes on products</t>
-  </si>
-  <si>
-    <t>Statistical discrepancy (2)</t>
-  </si>
-  <si>
-    <t>(%)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -195,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,6 +49,27 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -524,117 +387,173 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2020 r</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Economic Activity</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GDP at current market prices</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>HK$ million</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture, fishing, mining and quarrying</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>1168</v>
@@ -700,11 +619,13 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>61399</v>
@@ -770,11 +691,13 @@
         <v>25140</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, gas and water supply, and waste management</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>37671</v>
@@ -840,11 +763,13 @@
         <v>35155</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>62532</v>
@@ -910,11 +835,13 @@
         <v>104017</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>1120265</v>
@@ -980,11 +907,13 @@
         <v>2397020</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Import/export, wholesale and retail trades</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>276977</v>
@@ -1050,11 +979,13 @@
         <v>473298</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Import and export trade</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>234643</v>
@@ -1120,11 +1051,13 @@
         <v>408477</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trades</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>42334</v>
@@ -1190,11 +1123,13 @@
         <v>64822</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food services (1)</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>37843</v>
@@ -1260,11 +1195,13 @@
         <v>37397</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Transportation, storage, postal and courier services</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>97598</v>
@@ -1330,11 +1267,13 @@
         <v>115122</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Transportation and storage</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>92125</v>
@@ -1400,11 +1339,13 @@
         <v>104450</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Postal and courier services</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>5473</v>
@@ -1470,11 +1411,13 @@
         <v>10672</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Information and communications</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>42871</v>
@@ -1540,11 +1483,13 @@
         <v>93662</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Financing and insurance</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>164195</v>
@@ -1610,11 +1555,13 @@
         <v>597994</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Real estate, professional and business services</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>118248</v>
@@ -1680,11 +1627,13 @@
         <v>244955</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>64438</v>
@@ -1750,11 +1699,13 @@
         <v>108664</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Professional and business services</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>53810</v>
@@ -1820,11 +1771,13 @@
         <v>136291</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Public administration, social and personal services</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>243423</v>
@@ -1890,11 +1843,13 @@
         <v>531218</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Ownership of premises</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>139111</v>
@@ -1960,11 +1915,13 @@
         <v>303373</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>GDP at basic prices</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>1283035</v>
@@ -2030,11 +1987,13 @@
         <v>2563979</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Taxes on products</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>31231</v>
@@ -2100,11 +2059,13 @@
         <v>103627</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>GDP at current market prices</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>1337501</v>
@@ -2155,30 +2116,36 @@
         <v>2398280</v>
       </c>
       <c r="T24" t="n">
-        <v>2490438</v>
+        <v>2490598</v>
       </c>
       <c r="U24" t="n">
-        <v>2659384</v>
+        <v>2659611</v>
       </c>
       <c r="V24" t="n">
-        <v>2835119</v>
+        <v>2835429</v>
       </c>
       <c r="W24" t="n">
-        <v>2844560</v>
+        <v>2844843</v>
       </c>
       <c r="X24" t="n">
-        <v>2688536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>2675314</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Statistical discrepancy (2)</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>1.7</v>
@@ -2241,7 +2208,7 @@
         <v>0.4</v>
       </c>
       <c r="X25" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
